--- a/analysis/metadata/P05_2/P05_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P05_2/P05_2_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 09:05</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 09:05</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 07:18</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 07:18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 04:39</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 04:39</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 08:13</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 08:13</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>15/06/2021 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 06:39</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 06:39</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:52</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:52</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 05:15</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 05:15</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 06:47</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 06:47</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 09:16</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 09:16</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 11:45</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 11:45</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 07:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 07:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 10:27</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 10:27</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 07:24</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 07:24</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 11:36</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 11:36</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 07:49</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 07:49</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 09:48</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 09:48</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 10:31</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 10:31</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 05:13</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>07/07/2020 05:13</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 12:55</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 12:55</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 09:35</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>14/07/2020 09:35</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 13:15</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 13:15</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 07:11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 07:11</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>02/07/2020 05:15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>02/07/2020 05:15</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 14:47</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 14:47</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 04:05</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 04:05</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 13:27</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 13:27</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 10:44</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 10:44</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 07:58</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 07:58</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 07:47</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 07:47</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 12:18</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 12:18</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 11:57</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 11:57</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 10:08</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 10:08</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 14:01</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 14:01</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 09:06</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 09:06</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 07:13</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 07:13</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 10:50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 10:50</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 13:31</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 13:31</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 03:48</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 03:48</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 06:37</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 06:37</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 12:04</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 12:04</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 04:23</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 04:23</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 09:08</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 09:08</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 10:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 10:00</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 02:54</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 02:54</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 05:27</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 05:27</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 06:58</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 06:58</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 04:18</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 04:18</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 09:35</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 09:35</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>20/07/2020 00:00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 05:24</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 05:24</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 07:03</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>21/07/2020 07:03</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4042,6 +4042,11 @@
           <t>3111</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>16/07/2020 00:00</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>dried out</t>
@@ -4060,6 +4065,11 @@
       <c r="L54" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>16/07/2020 00:00</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4112,7 +4122,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 04:02</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4137,7 +4147,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 04:02</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4190,7 +4200,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 09:48</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4215,7 +4225,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 09:48</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4268,7 +4278,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 08:08</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4293,7 +4303,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 08:08</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4341,7 +4351,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 02:40</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4361,7 +4371,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>23/07/2020 02:40</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4409,7 +4419,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 10:56</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4429,7 +4439,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 10:56</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4482,7 +4492,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 07:51</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4507,7 +4517,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 07:51</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4555,7 +4565,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 06:34</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4575,7 +4585,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>16/07/2020 06:34</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4623,7 +4633,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 06:04</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4643,7 +4653,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 06:04</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4691,7 +4701,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 05:10</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4711,7 +4721,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 05:10</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4759,7 +4769,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 08:38</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4779,7 +4789,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 08:38</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4832,7 +4842,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 13:10</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4857,7 +4867,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>17/07/2020 13:10</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4905,7 +4915,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 07:57</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4925,7 +4935,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>15/07/2020 07:57</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4978,7 +4988,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 04:24</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4998,7 +5008,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>06/07/2020 04:24</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5046,7 +5056,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 09:35</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5071,7 +5081,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 09:35</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5119,7 +5129,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 03:23</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5139,7 +5149,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 03:23</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5187,7 +5197,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 04:59</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5207,7 +5217,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 04:59</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5255,7 +5265,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 11:54</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5275,7 +5285,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 11:54</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5328,7 +5338,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 10:54</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5353,7 +5363,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 10:54</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5406,7 +5416,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 05:54</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5431,7 +5441,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 05:54</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5484,7 +5494,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 10:28</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5509,7 +5519,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 10:28</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5562,7 +5572,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 08:10</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5587,7 +5597,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 08:10</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5640,7 +5650,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 09:02</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5665,7 +5675,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 09:02</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5718,7 +5728,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 06:15</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5743,7 +5753,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 06:15</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5791,7 +5801,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 11:54</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5811,7 +5821,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 11:54</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5864,7 +5874,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 03:57</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5889,7 +5899,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 03:57</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5937,7 +5947,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 11:43</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5962,7 +5972,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 11:43</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6015,7 +6025,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 02:47</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6040,7 +6050,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 02:47</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6088,7 +6098,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 05:29</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6108,7 +6118,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 05:29</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6161,7 +6171,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 10:20</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6186,7 +6196,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 10:20</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6234,7 +6244,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 04:19</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6254,7 +6264,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 04:19</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6302,7 +6312,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 07:43</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6327,7 +6337,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 07:43</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6375,7 +6385,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 08:45</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6400,7 +6410,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 08:45</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6448,7 +6458,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 06:12</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6473,7 +6483,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 06:12</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6521,7 +6531,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 06:50</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6546,7 +6556,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 06:50</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6594,7 +6604,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 07:40</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6614,7 +6624,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 07:40</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6662,7 +6672,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 03:43</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6682,7 +6692,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 03:43</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6730,7 +6740,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 05:39</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6750,7 +6760,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 05:39</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6798,7 +6808,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 08:49</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6823,7 +6833,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>26/09/2020 08:49</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6871,7 +6881,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 04:33</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6896,7 +6906,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 04:33</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -6944,7 +6954,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 11:14</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6964,7 +6974,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 11:14</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7012,7 +7022,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 09:34</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7032,7 +7042,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 09:34</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7080,7 +7090,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 05:04</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7105,7 +7115,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 05:04</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7153,7 +7163,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 03:56</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7173,7 +7183,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 03:56</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7226,7 +7236,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 10:14</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7251,7 +7261,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 10:14</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7304,7 +7314,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 07:48</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7329,7 +7339,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 07:48</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7382,7 +7392,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 06:48</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7407,7 +7417,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 06:48</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7455,7 +7465,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 08:21</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7475,7 +7485,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 08:21</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7528,7 +7538,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 06:19</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7553,7 +7563,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 06:19</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7606,7 +7616,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 08:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7631,7 +7641,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 08:00</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7684,7 +7694,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 07:14</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7709,7 +7719,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 07:14</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7757,7 +7767,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 05:45</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7777,7 +7787,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 05:45</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7830,7 +7840,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 09:05</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7855,7 +7865,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 09:05</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -7908,7 +7918,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 11:15</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7933,7 +7943,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 11:15</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -7986,7 +7996,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 06:26</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8011,7 +8021,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 06:26</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8059,7 +8069,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 09:05</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -8079,7 +8089,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>05/08/2020 09:05</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8127,7 +8137,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 05:35</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8147,7 +8157,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 05:35</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8195,7 +8205,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 09:18</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8215,7 +8225,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 09:18</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8263,7 +8273,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 08:16</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8283,7 +8293,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 08:16</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8331,7 +8341,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 07:18</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8351,7 +8361,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 07:18</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8404,7 +8414,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 10:48</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8429,7 +8439,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 10:48</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8482,7 +8492,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 03:19</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8507,7 +8517,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>04/08/2020 03:19</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8555,7 +8565,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 09:24</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8575,7 +8585,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 09:24</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8628,7 +8638,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 09:36</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8653,7 +8663,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 09:36</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -8701,7 +8711,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 09:30</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8721,7 +8731,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 09:30</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -8774,7 +8784,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 12:02</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8799,7 +8809,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 12:02</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -8847,7 +8857,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 06:10</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8867,7 +8877,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 06:10</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -8920,7 +8930,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 10:03</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8945,7 +8955,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 10:03</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -8993,7 +9003,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 08:32</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9013,7 +9023,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 08:32</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9061,7 +9071,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 10:45</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9086,7 +9096,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 10:45</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9139,7 +9149,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 11:19</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9164,7 +9174,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 11:19</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9212,7 +9222,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 04:03</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9232,7 +9242,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>12/08/2020 04:03</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9280,7 +9290,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 09:32</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9305,7 +9315,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 09:32</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9358,7 +9368,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 07:41</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9383,7 +9393,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 07:41</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9431,7 +9441,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 03:53</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -9451,7 +9461,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 03:53</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9499,7 +9509,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 04:42</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9519,7 +9529,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 04:42</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9567,7 +9577,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 06:03</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9592,7 +9602,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 06:03</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9640,7 +9650,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 05:16</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9660,7 +9670,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 05:16</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9708,7 +9718,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 09:05</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9728,7 +9738,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 09:05</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -9776,7 +9786,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 04:16</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9796,7 +9806,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 04:16</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -9849,7 +9859,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 04:30</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9874,7 +9884,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 04:30</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -9922,7 +9932,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 07:15</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9947,7 +9957,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>18/09/2020 07:15</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -9995,7 +10005,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 05:14</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10020,7 +10030,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>19/09/2020 05:14</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10068,7 +10078,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 07:18</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10088,7 +10098,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>14/08/2020 07:18</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10141,7 +10151,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 12:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10166,7 +10176,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 12:00</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10214,7 +10224,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 12:04</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10234,7 +10244,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>27/07/2020 12:04</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -10282,7 +10292,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 08:23</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10302,7 +10312,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 08:23</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10350,7 +10360,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 03:57</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10370,7 +10380,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 03:57</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -10418,7 +10428,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 06:26</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10438,7 +10448,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>10/08/2020 06:26</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10491,7 +10501,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 09:20</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10511,7 +10521,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>29/07/2020 09:20</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10559,7 +10569,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 09:53</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10579,7 +10589,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 09:53</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10627,7 +10637,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 03:51</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10647,7 +10657,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>06/08/2020 03:51</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10695,7 +10705,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 07:52</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -10715,7 +10725,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 07:52</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -10763,7 +10773,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 12:57</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10783,7 +10793,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 12:57</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -10831,7 +10841,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 04:11</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10856,7 +10866,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 04:11</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -10904,7 +10914,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 05:17</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -10929,7 +10939,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>22/11/2020 05:17</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -10977,7 +10987,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 05:26</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11002,7 +11012,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 05:26</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -11050,7 +11060,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 09:03</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11070,7 +11080,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 09:03</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -11118,7 +11128,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 07:03</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11143,7 +11153,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 07:03</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -11191,7 +11201,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 07:51</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11216,7 +11226,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 07:51</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -11264,7 +11274,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 06:42</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11289,7 +11299,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 06:42</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -11337,7 +11347,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 06:49</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11362,7 +11372,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 06:49</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -11410,7 +11420,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 09:13</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11430,7 +11440,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2020-12-05</t>
+          <t>05/12/2020 09:13</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -11478,7 +11488,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 04:23</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11503,7 +11513,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 04:23</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11551,7 +11561,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 02:52</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -11571,7 +11581,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 02:52</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -11619,7 +11629,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 07:05</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -11639,7 +11649,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>2020-12-06</t>
+          <t>06/12/2020 07:05</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -11687,7 +11697,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 08:10</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11712,7 +11722,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 08:10</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -11760,7 +11770,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 07:42</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11785,7 +11795,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 07:42</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -11833,7 +11843,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 10:06</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -11853,7 +11863,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 10:06</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -11901,7 +11911,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 02:56</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11926,7 +11936,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 02:56</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -11974,7 +11984,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 11:06</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -11999,7 +12009,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 11:06</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -12047,7 +12057,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 09:22</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12072,7 +12082,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 09:22</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -12120,7 +12130,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 02:21</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12145,7 +12155,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 02:21</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -12193,7 +12203,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 10:56</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -12213,7 +12223,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 10:56</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -12261,7 +12271,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 08:31</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12286,7 +12296,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>21/11/2020 08:31</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -12334,7 +12344,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 05:10</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -12354,7 +12364,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>14/11/2020 05:10</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -12402,7 +12412,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 05:57</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12427,7 +12437,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 05:57</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -12475,7 +12485,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 03:43</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12500,7 +12510,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 03:43</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12548,7 +12558,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 05:37</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -12568,7 +12578,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 05:37</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -12616,7 +12626,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 06:15</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -12636,7 +12646,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 06:15</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -12684,7 +12694,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 05:35</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -12704,7 +12714,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 05:35</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -12752,7 +12762,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 04:09</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12777,7 +12787,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>20/11/2020 04:09</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -12825,7 +12835,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 07:01</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12845,7 +12855,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 07:01</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -12893,7 +12903,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 07:02</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -12913,7 +12923,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 07:02</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -12961,7 +12971,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 05:09</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -12986,7 +12996,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>15/11/2020 05:09</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -13034,7 +13044,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 10:28</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -13054,7 +13064,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 10:28</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13102,7 +13112,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 05:46</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13127,7 +13137,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>13/11/2020 05:46</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -13175,7 +13185,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 05:57</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -13195,7 +13205,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>18/06/2021 05:57</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -13243,7 +13253,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 08:54</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -13263,7 +13273,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 08:54</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -13311,7 +13321,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 05:50</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -13331,7 +13341,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 05:50</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -13379,7 +13389,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 05:13</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -13399,7 +13409,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 05:13</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -13447,7 +13457,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 04:45</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13467,7 +13477,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 04:45</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -13515,7 +13525,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 05:19</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -13535,7 +13545,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 05:19</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -13583,7 +13593,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 02:35</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -13603,7 +13613,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 02:35</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -13651,7 +13661,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 09:38</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13671,7 +13681,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 09:38</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -13719,7 +13729,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 05:22</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13739,7 +13749,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 05:22</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -13787,7 +13797,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 07:11</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13807,7 +13817,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 07:11</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -13855,7 +13865,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:33</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -13875,7 +13885,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>22/06/2021 08:33</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -13923,7 +13933,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 09:23</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -13943,7 +13953,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 09:23</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -13991,7 +14001,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 10:57</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -14011,7 +14021,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 10:57</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -14059,7 +14069,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 03:49</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -14079,7 +14089,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 03:49</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -14127,7 +14137,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 05:58</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -14147,7 +14157,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 05:58</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -14195,7 +14205,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 04:44</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -14215,7 +14225,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 04:44</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -14263,7 +14273,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 04:26</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -14283,7 +14293,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>23/06/2021 04:26</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -14331,7 +14341,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:37</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -14351,7 +14361,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:37</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -14399,7 +14409,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:27</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -14419,7 +14429,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 04:27</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -14467,7 +14477,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 03:52</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -14487,7 +14497,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 03:52</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -14535,7 +14545,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 03:06</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -14555,7 +14565,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>25/06/2021 03:06</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -14603,7 +14613,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 09:19</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -14623,7 +14633,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 09:19</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -14671,7 +14681,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 08:28</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -14691,7 +14701,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 08:28</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -14739,7 +14749,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 08:05</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -14759,7 +14769,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 08:05</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -14807,7 +14817,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 07:13</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -14827,7 +14837,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 07:13</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -14875,7 +14885,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 05:44</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -14895,7 +14905,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 05:44</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -14943,7 +14953,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 05:27</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -14963,7 +14973,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 05:27</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -15011,7 +15021,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 04:47</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -15031,7 +15041,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>24/06/2021 04:47</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -15079,7 +15089,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 09:12</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -15099,7 +15109,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>20/04/2022 09:12</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -15147,7 +15157,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 05:20</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -15167,7 +15177,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 05:20</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -15215,7 +15225,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 07:34</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -15235,7 +15245,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 07:34</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -15283,7 +15293,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 09:29</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -15303,7 +15313,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 09:29</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -15351,7 +15361,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 08:06</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -15371,7 +15381,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 08:06</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -15419,7 +15429,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>28/09/2021 00:00</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15444,7 +15454,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>28/09/2021 00:00</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15492,7 +15502,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 10:27</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -15512,7 +15522,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 10:27</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15560,7 +15570,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 04:16</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -15580,7 +15590,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 04:16</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -15628,7 +15638,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 04:35</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -15648,7 +15658,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 04:35</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -15696,7 +15706,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 07:16</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -15716,7 +15726,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 07:16</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -15764,7 +15774,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 06:11</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -15784,7 +15794,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 06:11</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -15832,7 +15842,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 07:25</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -15852,7 +15862,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 07:25</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -15900,7 +15910,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 03:20</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -15920,7 +15930,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 03:20</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -15968,7 +15978,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 09:34</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -15988,7 +15998,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 09:34</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16036,7 +16046,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 03:12</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16056,7 +16066,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>22/04/2022 03:12</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -16104,7 +16114,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 09:11</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16124,7 +16134,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>19/04/2022 09:11</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -16172,7 +16182,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 02:39</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -16192,7 +16202,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 02:39</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -16240,7 +16250,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 05:06</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16260,7 +16270,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 05:06</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -16308,7 +16318,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 08:29</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16328,7 +16338,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>04/05/2022 08:29</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -16376,7 +16386,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 05:12</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16396,7 +16406,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 05:12</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -16444,7 +16454,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 04:57</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16464,7 +16474,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 04:57</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -16512,7 +16522,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 08:29</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16532,7 +16542,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 08:29</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16580,7 +16590,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>19/05/2022 03:50</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -16600,7 +16610,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>19/05/2022 03:50</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16648,7 +16658,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 07:54</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -16668,7 +16678,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 07:54</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -16716,7 +16726,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 07:19</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -16736,7 +16746,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 07:19</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -16784,7 +16794,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 09:44</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16804,7 +16814,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 09:44</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -16852,7 +16862,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 10:32</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16872,7 +16882,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 10:32</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -16920,7 +16930,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 03:25</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16940,7 +16950,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 03:25</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -16988,7 +16998,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 08:35</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -17008,7 +17018,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 08:35</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17056,7 +17066,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 04:41</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -17076,7 +17086,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 04:41</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17124,7 +17134,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 04:50</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -17144,7 +17154,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 04:50</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17192,7 +17202,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 09:41</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -17212,7 +17222,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 09:41</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17260,7 +17270,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 05:37</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -17280,7 +17290,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 05:37</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17328,7 +17338,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 03:44</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -17348,7 +17358,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 03:44</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17396,7 +17406,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 04:59</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -17416,7 +17426,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 04:59</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17464,7 +17474,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 04:01</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -17484,7 +17494,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 04:01</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -17532,7 +17542,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 05:37</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -17552,7 +17562,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 05:37</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -17600,7 +17610,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 04:39</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -17620,7 +17630,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 04:39</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -17668,7 +17678,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 07:40</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -17688,7 +17698,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 07:40</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -17736,7 +17746,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 07:07</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -17756,7 +17766,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 07:07</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -17804,7 +17814,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 05:40</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -17824,7 +17834,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>23/03/2022 05:40</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -17872,7 +17882,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 08:42</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -17892,7 +17902,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 08:42</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -17940,7 +17950,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>19/05/2022 04:49</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -17960,7 +17970,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>19/05/2022 04:49</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18008,7 +18018,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 10:58</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -18028,7 +18038,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 10:58</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18076,7 +18086,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 07:50</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -18096,7 +18106,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 07:50</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18144,7 +18154,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 08:26</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -18164,7 +18174,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>21/04/2022 08:26</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18212,7 +18222,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 02:37</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -18232,7 +18242,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 02:37</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18278,6 +18288,11 @@
           <t>3110</t>
         </is>
       </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>22/03/2022 00:00</t>
+        </is>
+      </c>
       <c r="I256" t="inlineStr">
         <is>
           <t>lake dybesø</t>
@@ -18296,6 +18311,11 @@
       <c r="L256" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>22/03/2022 00:00</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -18343,7 +18363,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 04:21</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -18363,7 +18383,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>18/05/2022 04:21</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -18411,7 +18431,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 04:15</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -18431,7 +18451,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 04:15</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18479,7 +18499,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 04:47</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18504,7 +18524,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 04:47</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -18552,7 +18572,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 03:06</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -18572,7 +18592,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 03:06</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -18620,7 +18640,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 02:36</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -18640,7 +18660,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>05/05/2022 02:36</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -18688,7 +18708,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>19/05/2022 03:21</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -18708,7 +18728,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>19/05/2022 03:21</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -18756,7 +18776,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 06:41</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -18776,7 +18796,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 06:41</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -18824,7 +18844,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 07:58</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -18844,7 +18864,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 07:58</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -18892,7 +18912,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 09:48</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -18912,7 +18932,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 09:48</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -18960,7 +18980,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 06:08</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -18980,7 +19000,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>26/04/2022 06:08</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -19028,7 +19048,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 08:36</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -19048,7 +19068,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 08:36</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -19096,7 +19116,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 11:49</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -19116,7 +19136,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>03/05/2022 11:49</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -19164,7 +19184,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 03:48</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -19184,7 +19204,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 03:48</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -19232,7 +19252,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 07:51</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -19252,7 +19272,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 07:51</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -19300,7 +19320,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 06:15</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -19320,7 +19340,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 06:15</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -19368,7 +19388,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 11:56</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19388,7 +19408,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>17/05/2022 11:56</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -19436,7 +19456,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 06:59</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -19456,7 +19476,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>27/04/2022 06:59</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -19504,7 +19524,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 08:43</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -19524,7 +19544,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 08:43</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -19572,7 +19592,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 11:49</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -19592,7 +19612,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>24/03/2022 11:49</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -19640,7 +19660,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 05:21</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -19660,7 +19680,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 05:21</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -19708,7 +19728,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 06:07</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -19728,7 +19748,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>25/03/2022 06:07</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -19774,6 +19794,11 @@
           <t>3110</t>
         </is>
       </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>03/05/2022 00:00</t>
+        </is>
+      </c>
       <c r="I278" t="inlineStr">
         <is>
           <t>bynært naturområde: lynghhøjsøerne</t>
@@ -19792,6 +19817,11 @@
       <c r="L278" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>03/05/2022 00:00</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -19839,7 +19869,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 04:38</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -19859,7 +19889,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 04:38</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -19907,7 +19937,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 07:14</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -19927,7 +19957,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 07:14</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -19975,7 +20005,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 08:40</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -19995,7 +20025,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 08:40</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -20043,7 +20073,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 11:14</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -20063,7 +20093,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 11:14</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -20111,7 +20141,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 09:27</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -20131,7 +20161,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 09:27</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -20179,7 +20209,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 11:34</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -20199,7 +20229,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>05/11/2021 11:34</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -20247,7 +20277,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 05:19</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -20267,7 +20297,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 05:19</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -20315,7 +20345,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 07:38</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -20335,7 +20365,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 07:38</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -20383,7 +20413,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 10:26</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -20403,7 +20433,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 10:26</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -20451,7 +20481,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 09:53</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -20471,7 +20501,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 09:53</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -20519,7 +20549,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 08:30</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -20539,7 +20569,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 08:30</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -20587,7 +20617,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 12:14</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -20607,7 +20637,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>06/11/2021 12:14</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -20655,7 +20685,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 06:59</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -20675,7 +20705,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>16/05/2022 06:59</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">

--- a/analysis/metadata/P05_2/P05_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P05_2/P05_2_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15/06/2021 09:05</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15/06/2021 09:05</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23/06/2021 07:18</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23/06/2021 07:18</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23/06/2021 04:39</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/06/2021 04:39</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15/06/2021 08:13</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15/06/2021 08:13</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15/06/2021 00:00</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/06/2021 00:00</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22/06/2021 06:39</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/06/2021 06:39</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22/06/2021 08:52</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22/06/2021 08:52</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18/06/2021 05:15</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/06/2021 05:15</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>22/06/2021 06:47</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>22/06/2021 06:47</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>22/06/2021 09:16</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>22/06/2021 09:16</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23/07/2020 11:45</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23/07/2020 11:45</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14/07/2020 07:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14/07/2020 07:00</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23/07/2020 10:27</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>23/07/2020 10:27</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14/07/2020 07:24</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14/07/2020 07:24</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14/07/2020 11:36</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14/07/2020 11:36</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>07/07/2020 07:49</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/07/2020 07:49</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08/07/2020 09:48</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>08/07/2020 09:48</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>08/07/2020 10:31</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>08/07/2020 10:31</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>07/07/2020 05:13</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>07/07/2020 05:13</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16/07/2020 12:55</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16/07/2020 12:55</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14/07/2020 09:35</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14/07/2020 09:35</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08/07/2020 13:15</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>08/07/2020 13:15</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>20/07/2020 07:11</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/07/2020 07:11</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>02/07/2020 05:15</t>
+          <t>2020-07-02</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>02/07/2020 05:15</t>
+          <t>2020-07-02</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08/07/2020 14:47</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>08/07/2020 14:47</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>21/07/2020 04:05</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>21/07/2020 04:05</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16/07/2020 13:27</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/07/2020 13:27</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>15/07/2020 10:44</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/07/2020 10:44</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>06/07/2020 07:58</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>06/07/2020 07:58</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>23/07/2020 07:47</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/07/2020 07:47</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23/07/2020 12:18</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/07/2020 12:18</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>21/07/2020 11:57</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>21/07/2020 11:57</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>21/07/2020 10:08</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21/07/2020 10:08</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23/07/2020 14:01</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/07/2020 14:01</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>03/08/2020 09:06</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/08/2020 09:06</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>04/08/2020 07:13</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>04/08/2020 07:13</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>21/07/2020 10:50</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>21/07/2020 10:50</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>23/07/2020 13:31</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>23/07/2020 13:31</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>22/07/2020 03:48</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22/07/2020 03:48</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>23/07/2020 06:37</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>23/07/2020 06:37</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>23/07/2020 12:04</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/07/2020 12:04</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22/07/2020 04:23</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>22/07/2020 04:23</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22/07/2020 09:08</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>22/07/2020 09:08</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22/07/2020 10:00</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>22/07/2020 10:00</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>21/07/2020 02:54</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>21/07/2020 02:54</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>20/07/2020 05:27</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20/07/2020 05:27</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>16/07/2020 06:58</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>16/07/2020 06:58</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>16/07/2020 04:18</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16/07/2020 04:18</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16/07/2020 09:35</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>16/07/2020 09:35</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>20/07/2020 00:00</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20/07/2020 00:00</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>16/07/2020 05:24</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>16/07/2020 05:24</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>21/07/2020 07:03</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>21/07/2020 07:03</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>16/07/2020 00:00</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/07/2020 00:00</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>17/07/2020 04:02</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/07/2020 04:02</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>17/07/2020 09:48</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>17/07/2020 09:48</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>17/07/2020 08:08</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17/07/2020 08:08</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>23/07/2020 02:40</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>23/07/2020 02:40</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>17/07/2020 10:56</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17/07/2020 10:56</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>17/07/2020 07:51</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17/07/2020 07:51</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>16/07/2020 06:34</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16/07/2020 06:34</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>15/07/2020 06:04</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>15/07/2020 06:04</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15/07/2020 05:10</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>15/07/2020 05:10</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>15/07/2020 08:38</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>15/07/2020 08:38</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>17/07/2020 13:10</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/07/2020 13:10</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>15/07/2020 07:57</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>15/07/2020 07:57</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>06/07/2020 04:24</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>06/07/2020 04:24</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10/08/2020 09:35</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>10/08/2020 09:35</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>06/08/2020 03:23</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/08/2020 03:23</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>30/07/2020 04:59</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/07/2020 04:59</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10/08/2020 11:54</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>10/08/2020 11:54</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>27/07/2020 10:54</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>27/07/2020 10:54</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>30/07/2020 05:54</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/07/2020 05:54</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>10/08/2020 10:28</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>10/08/2020 10:28</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>27/07/2020 08:10</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>27/07/2020 08:10</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>27/07/2020 09:02</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>27/07/2020 09:02</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>27/07/2020 06:15</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>27/07/2020 06:15</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>05/08/2020 11:54</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>05/08/2020 11:54</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>29/07/2020 03:57</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>29/07/2020 03:57</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>28/07/2020 11:43</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/07/2020 11:43</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>11/08/2020 02:47</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/08/2020 02:47</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>28/07/2020 05:29</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>28/07/2020 05:29</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>27/07/2020 10:20</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>27/07/2020 10:20</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>27/09/2020 04:19</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>27/09/2020 04:19</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>27/09/2020 07:43</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>27/09/2020 07:43</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>27/09/2020 08:45</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>27/09/2020 08:45</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>27/09/2020 06:12</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>27/09/2020 06:12</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>27/09/2020 06:50</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>27/09/2020 06:50</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>26/09/2020 07:40</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>26/09/2020 07:40</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>26/09/2020 03:43</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>26/09/2020 03:43</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>26/09/2020 05:39</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>26/09/2020 05:39</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>26/09/2020 08:49</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>26/09/2020 08:49</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>20/09/2020 04:33</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>20/09/2020 04:33</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>19/09/2020 11:14</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>19/09/2020 11:14</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>19/09/2020 09:34</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>19/09/2020 09:34</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>20/09/2020 05:04</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>20/09/2020 05:04</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>20/09/2020 03:56</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>20/09/2020 03:56</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>13/08/2020 10:14</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>13/08/2020 10:14</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>03/08/2020 07:48</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>03/08/2020 07:48</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>05/08/2020 06:48</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>05/08/2020 06:48</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>12/08/2020 08:21</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>12/08/2020 08:21</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>03/08/2020 06:19</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>03/08/2020 06:19</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>05/08/2020 08:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>05/08/2020 08:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>05/08/2020 07:14</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>05/08/2020 07:14</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>03/08/2020 05:45</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>03/08/2020 05:45</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>14/08/2020 09:05</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>14/08/2020 09:05</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>03/08/2020 11:15</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>03/08/2020 11:15</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>03/08/2020 06:26</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>03/08/2020 06:26</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>05/08/2020 09:05</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>05/08/2020 09:05</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>12/08/2020 05:35</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>12/08/2020 05:35</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>11/08/2020 09:18</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>11/08/2020 09:18</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>11/08/2020 08:16</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>11/08/2020 08:16</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>12/08/2020 07:18</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>12/08/2020 07:18</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>11/08/2020 10:48</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>11/08/2020 10:48</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8492,7 +8492,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>04/08/2020 03:19</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>04/08/2020 03:19</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>12/08/2020 09:24</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>12/08/2020 09:24</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>13/08/2020 09:36</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>13/08/2020 09:36</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>14/08/2020 09:30</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>14/08/2020 09:30</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>11/08/2020 12:02</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>11/08/2020 12:02</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>14/08/2020 06:10</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>14/08/2020 06:10</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -8930,7 +8930,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>11/08/2020 10:03</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>11/08/2020 10:03</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>13/08/2020 08:32</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>13/08/2020 08:32</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>18/09/2020 10:45</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>18/09/2020 10:45</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>13/08/2020 11:19</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>13/08/2020 11:19</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>12/08/2020 04:03</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/08/2020 04:03</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>18/09/2020 09:32</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>18/09/2020 09:32</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>14/08/2020 07:41</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>14/08/2020 07:41</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>19/09/2020 03:53</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>19/09/2020 03:53</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>18/09/2020 04:42</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>18/09/2020 04:42</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>18/09/2020 06:03</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>18/09/2020 06:03</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>18/09/2020 05:16</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>18/09/2020 05:16</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>18/09/2020 09:05</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>18/09/2020 09:05</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>14/08/2020 04:16</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>14/08/2020 04:16</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>11/08/2020 04:30</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>11/08/2020 04:30</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -9932,7 +9932,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>18/09/2020 07:15</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>18/09/2020 07:15</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>19/09/2020 05:14</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>19/09/2020 05:14</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>14/08/2020 07:18</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>14/08/2020 07:18</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>13/08/2020 12:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>13/08/2020 12:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>27/07/2020 12:04</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>27/07/2020 12:04</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>29/07/2020 08:23</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>29/07/2020 08:23</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>30/07/2020 03:57</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>30/07/2020 03:57</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>10/08/2020 06:26</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>10/08/2020 06:26</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>29/07/2020 09:20</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>29/07/2020 09:20</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>28/07/2020 09:53</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>28/07/2020 09:53</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>06/08/2020 03:51</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>06/08/2020 03:51</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>30/07/2020 07:52</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>30/07/2020 07:52</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>13/08/2020 12:57</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>13/08/2020 12:57</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>22/11/2020 04:11</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>22/11/2020 04:11</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>22/11/2020 05:17</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>22/11/2020 05:17</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>06/12/2020 05:26</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>06/12/2020 05:26</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>05/12/2020 09:03</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>05/12/2020 09:03</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>05/12/2020 07:03</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>05/12/2020 07:03</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>21/11/2020 07:51</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11226,7 +11226,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>21/11/2020 07:51</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>21/11/2020 06:42</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>21/11/2020 06:42</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>05/12/2020 06:49</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>05/12/2020 06:49</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -11420,7 +11420,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>05/12/2020 09:13</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>05/12/2020 09:13</t>
+          <t>2020-12-05</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -11488,7 +11488,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>21/11/2020 04:23</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>21/11/2020 04:23</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>21/11/2020 02:52</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>21/11/2020 02:52</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>06/12/2020 07:05</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -11649,7 +11649,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>06/12/2020 07:05</t>
+          <t>2020-12-06</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>20/11/2020 08:10</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11722,7 +11722,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>20/11/2020 08:10</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -11770,7 +11770,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>20/11/2020 07:42</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>20/11/2020 07:42</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>20/11/2020 10:06</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>20/11/2020 10:06</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>15/11/2020 02:56</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>15/11/2020 02:56</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>14/11/2020 11:06</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>14/11/2020 11:06</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>14/11/2020 09:22</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>14/11/2020 09:22</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>14/11/2020 02:21</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>14/11/2020 02:21</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>13/11/2020 10:56</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>13/11/2020 10:56</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>21/11/2020 08:31</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>21/11/2020 08:31</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>14/11/2020 05:10</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>14/11/2020 05:10</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>20/11/2020 05:57</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>20/11/2020 05:57</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>20/11/2020 03:43</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>20/11/2020 03:43</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>18/06/2021 05:37</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>18/06/2021 05:37</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>20/11/2020 06:15</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>20/11/2020 06:15</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>13/11/2020 05:35</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>13/11/2020 05:35</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -12762,7 +12762,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>20/11/2020 04:09</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>20/11/2020 04:09</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>13/11/2020 07:01</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>13/11/2020 07:01</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>28/04/2022 07:02</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>28/04/2022 07:02</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>15/11/2020 05:09</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>15/11/2020 05:09</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>13/11/2020 10:28</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>13/11/2020 10:28</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13112,7 +13112,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>13/11/2020 05:46</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>13/11/2020 05:46</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>18/06/2021 05:57</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -13205,7 +13205,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>18/06/2021 05:57</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>23/06/2021 08:54</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -13273,7 +13273,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>23/06/2021 08:54</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>28/04/2022 05:50</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>28/04/2022 05:50</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -13389,7 +13389,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>23/06/2021 05:13</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -13409,7 +13409,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>23/06/2021 05:13</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -13457,7 +13457,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>19/04/2022 04:45</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>19/04/2022 04:45</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -13525,7 +13525,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>16/05/2022 05:19</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>16/05/2022 05:19</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -13593,7 +13593,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>22/04/2022 02:35</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>22/04/2022 02:35</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>05/05/2022 09:38</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>05/05/2022 09:38</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>21/04/2022 05:22</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13749,7 +13749,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>21/04/2022 05:22</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>22/06/2021 07:11</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>22/06/2021 07:11</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -13865,7 +13865,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>22/06/2021 08:33</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>22/06/2021 08:33</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>24/06/2021 09:23</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>24/06/2021 09:23</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>24/06/2021 10:57</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>24/06/2021 10:57</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>25/06/2021 03:49</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>25/06/2021 03:49</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>23/06/2021 05:58</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>23/06/2021 05:58</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>23/06/2021 04:44</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>23/06/2021 04:44</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>23/06/2021 04:26</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>23/06/2021 04:26</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>25/06/2021 04:37</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>25/06/2021 04:37</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -14409,7 +14409,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>25/06/2021 04:27</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>25/06/2021 04:27</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>25/06/2021 03:52</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -14497,7 +14497,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>25/06/2021 03:52</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>25/06/2021 03:06</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -14565,7 +14565,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>25/06/2021 03:06</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>24/06/2021 09:19</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>24/06/2021 09:19</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -14681,7 +14681,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>24/06/2021 08:28</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>24/06/2021 08:28</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -14749,7 +14749,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>24/06/2021 08:05</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>24/06/2021 08:05</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>24/06/2021 07:13</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>24/06/2021 07:13</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -14885,7 +14885,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>24/06/2021 05:44</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -14905,7 +14905,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>24/06/2021 05:44</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>24/06/2021 05:27</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>24/06/2021 05:27</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>24/06/2021 04:47</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>24/06/2021 04:47</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>20/04/2022 09:12</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -15109,7 +15109,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>20/04/2022 09:12</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>19/04/2022 05:20</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>19/04/2022 05:20</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>21/04/2022 07:34</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>21/04/2022 07:34</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -15293,7 +15293,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>16/05/2022 09:29</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -15313,7 +15313,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>16/05/2022 09:29</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>19/04/2022 08:06</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>19/04/2022 08:06</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>28/09/2021 00:00</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>28/09/2021 00:00</t>
+          <t>2021-09-28</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15502,7 +15502,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>28/04/2022 10:27</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>28/04/2022 10:27</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>19/04/2022 04:16</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -15590,7 +15590,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>19/04/2022 04:16</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>22/04/2022 04:35</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>22/04/2022 04:35</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>21/04/2022 07:16</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>21/04/2022 07:16</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>05/05/2022 06:11</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -15794,7 +15794,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>05/05/2022 06:11</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -15842,7 +15842,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>05/05/2022 07:25</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>05/05/2022 07:25</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -15910,7 +15910,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>17/05/2022 03:20</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -15930,7 +15930,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>17/05/2022 03:20</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -15978,7 +15978,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>04/05/2022 09:34</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -15998,7 +15998,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>04/05/2022 09:34</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>22/04/2022 03:12</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>22/04/2022 03:12</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -16114,7 +16114,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>19/04/2022 09:11</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16134,7 +16134,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>19/04/2022 09:11</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>29/04/2022 02:39</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -16202,7 +16202,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>29/04/2022 02:39</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>04/05/2022 05:06</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>04/05/2022 05:06</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>04/05/2022 08:29</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>04/05/2022 08:29</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>17/05/2022 05:12</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16406,7 +16406,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>17/05/2022 05:12</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -16454,7 +16454,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>29/04/2022 04:57</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16474,7 +16474,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>29/04/2022 04:57</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>23/03/2022 08:29</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>23/03/2022 08:29</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>19/05/2022 03:50</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -16610,7 +16610,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>19/05/2022 03:50</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>03/05/2022 07:54</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -16678,7 +16678,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>03/05/2022 07:54</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>26/04/2022 07:19</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -16746,7 +16746,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>26/04/2022 07:19</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -16794,7 +16794,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>18/05/2022 09:44</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16814,7 +16814,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>18/05/2022 09:44</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -16862,7 +16862,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>24/03/2022 10:32</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>24/03/2022 10:32</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -16930,7 +16930,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>18/05/2022 03:25</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16950,7 +16950,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>18/05/2022 03:25</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>17/05/2022 08:35</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>17/05/2022 08:35</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>17/05/2022 04:41</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>17/05/2022 04:41</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17134,7 +17134,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>23/03/2022 04:50</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -17154,7 +17154,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>23/03/2022 04:50</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17202,7 +17202,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>27/04/2022 09:41</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -17222,7 +17222,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>27/04/2022 09:41</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>25/03/2022 05:37</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -17290,7 +17290,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>25/03/2022 05:37</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>05/05/2022 03:44</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -17358,7 +17358,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>05/05/2022 03:44</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>27/04/2022 04:59</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -17426,7 +17426,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>27/04/2022 04:59</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17474,7 +17474,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>23/03/2022 04:01</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -17494,7 +17494,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>23/03/2022 04:01</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>18/05/2022 05:37</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>18/05/2022 05:37</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -17610,7 +17610,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>27/04/2022 04:39</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -17630,7 +17630,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>27/04/2022 04:39</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>27/04/2022 07:40</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>27/04/2022 07:40</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>23/03/2022 07:07</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>23/03/2022 07:07</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -17814,7 +17814,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>23/03/2022 05:40</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>23/03/2022 05:40</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -17882,7 +17882,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>18/05/2022 08:42</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -17902,7 +17902,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>18/05/2022 08:42</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -17950,7 +17950,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>19/05/2022 04:49</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -17970,7 +17970,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>19/05/2022 04:49</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>03/05/2022 10:58</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -18038,7 +18038,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>03/05/2022 10:58</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>18/05/2022 07:50</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -18106,7 +18106,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>18/05/2022 07:50</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>21/04/2022 08:26</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -18174,7 +18174,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>21/04/2022 08:26</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18222,7 +18222,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>28/04/2022 02:37</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>28/04/2022 02:37</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18290,7 +18290,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>22/03/2022 00:00</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18315,7 +18315,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>22/03/2022 00:00</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>18/05/2022 04:21</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>18/05/2022 04:21</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -18431,7 +18431,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>29/04/2022 04:15</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -18451,7 +18451,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>29/04/2022 04:15</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18499,7 +18499,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>25/03/2022 04:47</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18524,7 +18524,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>25/03/2022 04:47</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>29/04/2022 03:06</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -18592,7 +18592,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>29/04/2022 03:06</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>05/05/2022 02:36</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -18660,7 +18660,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>05/05/2022 02:36</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>19/05/2022 03:21</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -18728,7 +18728,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>19/05/2022 03:21</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>26/04/2022 06:41</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>26/04/2022 06:41</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>16/05/2022 07:58</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -18864,7 +18864,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>16/05/2022 07:58</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>17/05/2022 09:48</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -18932,7 +18932,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>17/05/2022 09:48</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>26/04/2022 06:08</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>26/04/2022 06:08</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>03/05/2022 08:36</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>03/05/2022 08:36</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>03/05/2022 11:49</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>03/05/2022 11:49</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>28/04/2022 03:48</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>28/04/2022 03:48</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>24/03/2022 07:51</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -19272,7 +19272,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>24/03/2022 07:51</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>24/03/2022 06:15</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -19340,7 +19340,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>24/03/2022 06:15</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>17/05/2022 11:56</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>17/05/2022 11:56</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>27/04/2022 06:59</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>27/04/2022 06:59</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>24/03/2022 08:43</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>24/03/2022 08:43</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>24/03/2022 11:49</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>24/03/2022 11:49</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>25/03/2022 05:21</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -19680,7 +19680,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>25/03/2022 05:21</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>25/03/2022 06:07</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -19748,7 +19748,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>25/03/2022 06:07</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>03/05/2022 00:00</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -19821,7 +19821,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>03/05/2022 00:00</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -19869,7 +19869,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>05/11/2021 04:38</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -19889,7 +19889,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>05/11/2021 04:38</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -19937,7 +19937,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>05/11/2021 07:14</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -19957,7 +19957,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>05/11/2021 07:14</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -20005,7 +20005,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>05/11/2021 08:40</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -20025,7 +20025,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>05/11/2021 08:40</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -20073,7 +20073,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>05/11/2021 11:14</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>05/11/2021 11:14</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -20141,7 +20141,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>05/11/2021 09:27</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>05/11/2021 09:27</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -20209,7 +20209,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>05/11/2021 11:34</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -20229,7 +20229,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>05/11/2021 11:34</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -20277,7 +20277,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>06/11/2021 05:19</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -20297,7 +20297,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>06/11/2021 05:19</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -20345,7 +20345,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>06/11/2021 07:38</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -20365,7 +20365,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>06/11/2021 07:38</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -20413,7 +20413,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>06/11/2021 10:26</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -20433,7 +20433,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>06/11/2021 10:26</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -20481,7 +20481,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>06/11/2021 09:53</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>06/11/2021 09:53</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -20549,7 +20549,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>06/11/2021 08:30</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -20569,7 +20569,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>06/11/2021 08:30</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>06/11/2021 12:14</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>06/11/2021 12:14</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -20685,7 +20685,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>16/05/2022 06:59</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -20705,7 +20705,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>16/05/2022 06:59</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">

--- a/analysis/metadata/P05_2/P05_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P05_2/P05_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P291"/>
+  <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>56.9621</v>
+        <v>56.9619</v>
       </c>
       <c r="D16">
-        <v>9.809200000000001</v>
+        <v>9.8104</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MFD09426</t>
+          <t>MFD09510</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -15412,10 +15412,10 @@
         </is>
       </c>
       <c r="C214">
-        <v>55.0692</v>
+        <v>55.7672</v>
       </c>
       <c r="D214">
-        <v>14.9219</v>
+        <v>12.174</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -15429,12 +15429,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>vrj: habitatv assessment: 3100</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -15454,7 +15449,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15476,7 +15471,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MFD09510</t>
+          <t>MFD09511</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15485,10 +15480,10 @@
         </is>
       </c>
       <c r="C215">
-        <v>55.7672</v>
+        <v>55.8144</v>
       </c>
       <c r="D215">
-        <v>12.174</v>
+        <v>11.4987</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -15502,7 +15497,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -15522,7 +15517,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15544,7 +15539,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MFD09511</t>
+          <t>MFD09513</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -15553,10 +15548,10 @@
         </is>
       </c>
       <c r="C216">
-        <v>55.8144</v>
+        <v>55.6698</v>
       </c>
       <c r="D216">
-        <v>11.4987</v>
+        <v>11.124</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -15570,7 +15565,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -15590,7 +15585,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -15612,7 +15607,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MFD09513</t>
+          <t>MFD09525</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15621,10 +15616,10 @@
         </is>
       </c>
       <c r="C217">
-        <v>55.6698</v>
+        <v>55.5085</v>
       </c>
       <c r="D217">
-        <v>11.124</v>
+        <v>11.2986</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -15638,7 +15633,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -15658,7 +15653,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -15680,7 +15675,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MFD09525</t>
+          <t>MFD09547</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -15689,10 +15684,10 @@
         </is>
       </c>
       <c r="C218">
-        <v>55.5085</v>
+        <v>55.607</v>
       </c>
       <c r="D218">
-        <v>11.2986</v>
+        <v>12.2737</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -15706,7 +15701,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -15726,7 +15721,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -15748,7 +15743,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MFD09547</t>
+          <t>MFD09570</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -15757,10 +15752,10 @@
         </is>
       </c>
       <c r="C219">
-        <v>55.607</v>
+        <v>55.6152</v>
       </c>
       <c r="D219">
-        <v>12.2737</v>
+        <v>12.3462</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -15816,7 +15811,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MFD09570</t>
+          <t>MFD09572</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -15825,10 +15820,10 @@
         </is>
       </c>
       <c r="C220">
-        <v>55.6152</v>
+        <v>55.7536</v>
       </c>
       <c r="D220">
-        <v>12.3462</v>
+        <v>12.3299</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -15842,7 +15837,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -15862,7 +15857,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -15884,7 +15879,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>MFD09572</t>
+          <t>MFD09580</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -15893,10 +15888,10 @@
         </is>
       </c>
       <c r="C221">
-        <v>55.7536</v>
+        <v>55.6767</v>
       </c>
       <c r="D221">
-        <v>12.3299</v>
+        <v>12.4428</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -15910,7 +15905,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -15930,7 +15925,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -15952,7 +15947,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>MFD09580</t>
+          <t>MFD09581</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -15961,10 +15956,10 @@
         </is>
       </c>
       <c r="C222">
-        <v>55.6767</v>
+        <v>55.6175</v>
       </c>
       <c r="D222">
-        <v>12.4428</v>
+        <v>11.2209</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -15978,7 +15973,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -15998,7 +15993,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16020,7 +16015,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MFD09581</t>
+          <t>MFD09623</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -16029,10 +16024,10 @@
         </is>
       </c>
       <c r="C223">
-        <v>55.6175</v>
+        <v>55.6111</v>
       </c>
       <c r="D223">
-        <v>11.2209</v>
+        <v>11.7812</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -16046,7 +16041,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -16066,7 +16061,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -16088,7 +16083,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MFD09623</t>
+          <t>MFD09663</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -16097,10 +16092,10 @@
         </is>
       </c>
       <c r="C224">
-        <v>55.6111</v>
+        <v>55.6319</v>
       </c>
       <c r="D224">
-        <v>11.7812</v>
+        <v>12.0826</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -16114,7 +16109,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -16134,7 +16129,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -16156,7 +16151,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MFD09663</t>
+          <t>MFD09668</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -16165,10 +16160,10 @@
         </is>
       </c>
       <c r="C225">
-        <v>55.6319</v>
+        <v>55.6189</v>
       </c>
       <c r="D225">
-        <v>12.0826</v>
+        <v>12.6074</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -16182,7 +16177,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -16202,7 +16197,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -16224,7 +16219,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>MFD09668</t>
+          <t>MFD09674</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -16233,10 +16228,10 @@
         </is>
       </c>
       <c r="C226">
-        <v>55.6189</v>
+        <v>55.6737</v>
       </c>
       <c r="D226">
-        <v>12.6074</v>
+        <v>12.4835</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -16292,7 +16287,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MFD09674</t>
+          <t>MFD09696</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -16301,10 +16296,10 @@
         </is>
       </c>
       <c r="C227">
-        <v>55.6737</v>
+        <v>55.739</v>
       </c>
       <c r="D227">
-        <v>12.4835</v>
+        <v>12.3111</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -16318,7 +16313,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -16338,7 +16333,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -16360,7 +16355,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MFD09696</t>
+          <t>MFD09705</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -16369,10 +16364,10 @@
         </is>
       </c>
       <c r="C228">
-        <v>55.739</v>
+        <v>55.6607</v>
       </c>
       <c r="D228">
-        <v>12.3111</v>
+        <v>12.1788</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -16386,7 +16381,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -16406,7 +16401,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -16428,7 +16423,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MFD09705</t>
+          <t>MFD09708</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16437,10 +16432,10 @@
         </is>
       </c>
       <c r="C229">
-        <v>55.6607</v>
+        <v>56.0143</v>
       </c>
       <c r="D229">
-        <v>12.1788</v>
+        <v>12.111</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -16454,7 +16449,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -16474,7 +16469,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -16496,7 +16491,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MFD09708</t>
+          <t>MFD09722</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16505,10 +16500,10 @@
         </is>
       </c>
       <c r="C230">
-        <v>56.0143</v>
+        <v>55.7467</v>
       </c>
       <c r="D230">
-        <v>12.111</v>
+        <v>12.5194</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -16522,7 +16517,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -16542,7 +16537,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -16564,7 +16559,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MFD09722</t>
+          <t>MFD09725</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16573,10 +16568,10 @@
         </is>
       </c>
       <c r="C231">
-        <v>55.7467</v>
+        <v>55.6446</v>
       </c>
       <c r="D231">
-        <v>12.5194</v>
+        <v>12.2058</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -16590,7 +16585,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -16610,7 +16605,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16632,7 +16627,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MFD09725</t>
+          <t>MFD09732</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -16641,10 +16636,10 @@
         </is>
       </c>
       <c r="C232">
-        <v>55.6446</v>
+        <v>55.9022</v>
       </c>
       <c r="D232">
-        <v>12.2058</v>
+        <v>12.3379</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -16658,7 +16653,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -16678,7 +16673,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -16700,7 +16695,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MFD09732</t>
+          <t>MFD09734</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -16709,10 +16704,10 @@
         </is>
       </c>
       <c r="C233">
-        <v>55.9022</v>
+        <v>55.7004</v>
       </c>
       <c r="D233">
-        <v>12.3379</v>
+        <v>12.5048</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -16726,7 +16721,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -16746,7 +16741,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -16768,7 +16763,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MFD09734</t>
+          <t>MFD09738</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -16777,10 +16772,10 @@
         </is>
       </c>
       <c r="C234">
-        <v>55.7004</v>
+        <v>55.8367</v>
       </c>
       <c r="D234">
-        <v>12.5048</v>
+        <v>12.071</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -16794,7 +16789,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -16814,7 +16809,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -16836,7 +16831,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>MFD09738</t>
+          <t>MFD09739</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -16845,10 +16840,10 @@
         </is>
       </c>
       <c r="C235">
-        <v>55.8367</v>
+        <v>55.6432</v>
       </c>
       <c r="D235">
-        <v>12.071</v>
+        <v>12.3691</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -16862,7 +16857,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -16882,7 +16877,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -16904,7 +16899,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>MFD09739</t>
+          <t>MFD09740</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -16913,10 +16908,10 @@
         </is>
       </c>
       <c r="C236">
-        <v>55.6432</v>
+        <v>55.7245</v>
       </c>
       <c r="D236">
-        <v>12.3691</v>
+        <v>12.3599</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -16930,7 +16925,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -16950,7 +16945,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -16972,7 +16967,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MFD09740</t>
+          <t>MFD09741</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -16981,10 +16976,10 @@
         </is>
       </c>
       <c r="C237">
-        <v>55.7245</v>
+        <v>55.7393</v>
       </c>
       <c r="D237">
-        <v>12.3599</v>
+        <v>12.3042</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -17040,7 +17035,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MFD09741</t>
+          <t>MFD09742</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17049,10 +17044,10 @@
         </is>
       </c>
       <c r="C238">
-        <v>55.7393</v>
+        <v>55.9796</v>
       </c>
       <c r="D238">
-        <v>12.3042</v>
+        <v>12.3464</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -17066,7 +17061,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -17086,7 +17081,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17108,7 +17103,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>MFD09742</t>
+          <t>MFD09747</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17117,10 +17112,10 @@
         </is>
       </c>
       <c r="C239">
-        <v>55.9796</v>
+        <v>55.6674</v>
       </c>
       <c r="D239">
-        <v>12.3464</v>
+        <v>11.7356</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -17134,7 +17129,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -17154,7 +17149,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17176,7 +17171,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MFD09747</t>
+          <t>MFD09753</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17185,10 +17180,10 @@
         </is>
       </c>
       <c r="C240">
-        <v>55.6674</v>
+        <v>55.793</v>
       </c>
       <c r="D240">
-        <v>11.7356</v>
+        <v>12.469</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -17202,7 +17197,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -17222,7 +17217,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17244,7 +17239,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MFD09753</t>
+          <t>MFD09762</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17253,10 +17248,10 @@
         </is>
       </c>
       <c r="C241">
-        <v>55.793</v>
+        <v>55.5721</v>
       </c>
       <c r="D241">
-        <v>12.469</v>
+        <v>12.2243</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -17270,7 +17265,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -17290,7 +17285,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17312,7 +17307,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>MFD09762</t>
+          <t>MFD09776</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17321,10 +17316,10 @@
         </is>
       </c>
       <c r="C242">
-        <v>55.5721</v>
+        <v>55.7476</v>
       </c>
       <c r="D242">
-        <v>12.2243</v>
+        <v>11.9611</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -17338,7 +17333,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -17358,7 +17353,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17380,7 +17375,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MFD09776</t>
+          <t>MFD09777</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17389,10 +17384,10 @@
         </is>
       </c>
       <c r="C243">
-        <v>55.7476</v>
+        <v>55.975</v>
       </c>
       <c r="D243">
-        <v>11.9611</v>
+        <v>12.4052</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -17406,7 +17401,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -17426,7 +17421,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -17448,7 +17443,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>MFD09777</t>
+          <t>MFD09782</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17457,10 +17452,10 @@
         </is>
       </c>
       <c r="C244">
-        <v>55.975</v>
+        <v>55.6651</v>
       </c>
       <c r="D244">
-        <v>12.4052</v>
+        <v>12.4127</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -17474,7 +17469,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -17494,7 +17489,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -17516,7 +17511,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>MFD09782</t>
+          <t>MFD09784</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17525,10 +17520,10 @@
         </is>
       </c>
       <c r="C245">
-        <v>55.6651</v>
+        <v>55.7554</v>
       </c>
       <c r="D245">
-        <v>12.4127</v>
+        <v>11.9627</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -17542,7 +17537,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -17562,7 +17557,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -17584,7 +17579,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>MFD09784</t>
+          <t>MFD09786</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -17593,10 +17588,10 @@
         </is>
       </c>
       <c r="C246">
-        <v>55.7554</v>
+        <v>55.7009</v>
       </c>
       <c r="D246">
-        <v>11.9627</v>
+        <v>11.7018</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -17652,7 +17647,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>MFD09786</t>
+          <t>MFD09790</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -17661,10 +17656,10 @@
         </is>
       </c>
       <c r="C247">
-        <v>55.7009</v>
+        <v>56.0225</v>
       </c>
       <c r="D247">
-        <v>11.7018</v>
+        <v>12.1982</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -17678,7 +17673,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -17698,7 +17693,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -17720,7 +17715,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>MFD09790</t>
+          <t>MFD09792</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -17729,10 +17724,10 @@
         </is>
       </c>
       <c r="C248">
-        <v>56.0225</v>
+        <v>56.0627</v>
       </c>
       <c r="D248">
-        <v>12.1982</v>
+        <v>12.2832</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -17788,7 +17783,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>MFD09792</t>
+          <t>MFD09807</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -17797,10 +17792,10 @@
         </is>
       </c>
       <c r="C249">
-        <v>56.0627</v>
+        <v>55.6998</v>
       </c>
       <c r="D249">
-        <v>12.2832</v>
+        <v>12.4626</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -17814,7 +17809,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -17834,7 +17829,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -17856,7 +17851,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>MFD09807</t>
+          <t>MFD09813</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -17865,10 +17860,10 @@
         </is>
       </c>
       <c r="C250">
-        <v>55.6998</v>
+        <v>55.7431</v>
       </c>
       <c r="D250">
-        <v>12.4626</v>
+        <v>12.4691</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -17882,7 +17877,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -17902,7 +17897,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -17924,7 +17919,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MFD09813</t>
+          <t>MFD09820</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -17933,10 +17928,10 @@
         </is>
       </c>
       <c r="C251">
-        <v>55.7431</v>
+        <v>55.6742</v>
       </c>
       <c r="D251">
-        <v>12.4691</v>
+        <v>12.3356</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -17950,7 +17945,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -17970,7 +17965,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -17992,7 +17987,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MFD09820</t>
+          <t>MFD09828</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18001,10 +17996,10 @@
         </is>
       </c>
       <c r="C252">
-        <v>55.6742</v>
+        <v>55.689</v>
       </c>
       <c r="D252">
-        <v>12.3356</v>
+        <v>12.4588</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -18018,7 +18013,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -18038,7 +18033,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18060,7 +18055,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MFD09828</t>
+          <t>MFD09839</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18069,10 +18064,10 @@
         </is>
       </c>
       <c r="C253">
-        <v>55.689</v>
+        <v>55.5422</v>
       </c>
       <c r="D253">
-        <v>12.4588</v>
+        <v>11.2167</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -18086,7 +18081,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -18106,7 +18101,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18128,7 +18123,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>MFD09839</t>
+          <t>MFD09841</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18137,10 +18132,10 @@
         </is>
       </c>
       <c r="C254">
-        <v>55.5422</v>
+        <v>55.9106</v>
       </c>
       <c r="D254">
-        <v>11.2167</v>
+        <v>12.1518</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -18154,7 +18149,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -18174,7 +18169,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18196,7 +18191,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>MFD09841</t>
+          <t>MFD09847</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18205,10 +18200,10 @@
         </is>
       </c>
       <c r="C255">
-        <v>55.9106</v>
+        <v>55.9605</v>
       </c>
       <c r="D255">
-        <v>12.1518</v>
+        <v>11.7469</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -18222,7 +18217,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>lake dybesø</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18264,7 +18264,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>MFD09847</t>
+          <t>MFD09850</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18273,10 +18273,10 @@
         </is>
       </c>
       <c r="C256">
-        <v>55.9605</v>
+        <v>55.653</v>
       </c>
       <c r="D256">
-        <v>11.7469</v>
+        <v>12.3585</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -18290,12 +18290,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
-        </is>
-      </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>lake dybesø</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -18315,7 +18310,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -18337,7 +18332,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MFD09850</t>
+          <t>MFD09851</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18346,10 +18341,10 @@
         </is>
       </c>
       <c r="C257">
-        <v>55.653</v>
+        <v>55.6515</v>
       </c>
       <c r="D257">
-        <v>12.3585</v>
+        <v>12.1694</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -18363,7 +18358,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -18383,7 +18378,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -18405,7 +18400,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MFD09851</t>
+          <t>MFD09873</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18414,10 +18409,10 @@
         </is>
       </c>
       <c r="C258">
-        <v>55.6515</v>
+        <v>55.7846</v>
       </c>
       <c r="D258">
-        <v>12.1694</v>
+        <v>12.4963</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -18431,7 +18426,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>gennemløb</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -18451,7 +18451,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -18473,7 +18473,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>MFD09873</t>
+          <t>MFD09884</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -18482,10 +18482,10 @@
         </is>
       </c>
       <c r="C259">
-        <v>55.7846</v>
+        <v>55.6471</v>
       </c>
       <c r="D259">
-        <v>12.4963</v>
+        <v>12.0796</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -18499,12 +18499,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
-        </is>
-      </c>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>gennemløb</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -18524,7 +18519,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -18546,7 +18541,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>MFD09884</t>
+          <t>MFD09885</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -18555,10 +18550,10 @@
         </is>
       </c>
       <c r="C260">
-        <v>55.6471</v>
+        <v>55.593</v>
       </c>
       <c r="D260">
-        <v>12.0796</v>
+        <v>12.1697</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -18572,7 +18567,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -18592,7 +18587,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -18614,7 +18609,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>MFD09885</t>
+          <t>MFD09886</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -18623,10 +18618,10 @@
         </is>
       </c>
       <c r="C261">
-        <v>55.593</v>
+        <v>55.7645</v>
       </c>
       <c r="D261">
-        <v>12.1697</v>
+        <v>12.5363</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -18640,7 +18635,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -18660,7 +18655,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -18682,7 +18677,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>MFD09886</t>
+          <t>MFD09891</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -18691,10 +18686,10 @@
         </is>
       </c>
       <c r="C262">
-        <v>55.7645</v>
+        <v>55.9325</v>
       </c>
       <c r="D262">
-        <v>12.5363</v>
+        <v>12.3315</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -18708,7 +18703,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -18728,7 +18723,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -18750,7 +18745,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>MFD09891</t>
+          <t>MFD09895</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -18759,10 +18754,10 @@
         </is>
       </c>
       <c r="C263">
-        <v>55.9325</v>
+        <v>55.7921</v>
       </c>
       <c r="D263">
-        <v>12.3315</v>
+        <v>12.2641</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -18776,7 +18771,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -18796,7 +18791,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -18818,7 +18813,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>MFD09895</t>
+          <t>MFD09903</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -18827,10 +18822,10 @@
         </is>
       </c>
       <c r="C264">
-        <v>55.7921</v>
+        <v>55.7162</v>
       </c>
       <c r="D264">
-        <v>12.2641</v>
+        <v>12.4051</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -18844,7 +18839,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -18864,7 +18859,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -18886,7 +18881,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>MFD09903</t>
+          <t>MFD09910</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -18895,10 +18890,10 @@
         </is>
       </c>
       <c r="C265">
-        <v>55.7162</v>
+        <v>55.9404</v>
       </c>
       <c r="D265">
-        <v>12.4051</v>
+        <v>12.2987</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -18912,7 +18907,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -18932,7 +18927,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -18954,7 +18949,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>MFD09910</t>
+          <t>MFD09912</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -18963,10 +18958,10 @@
         </is>
       </c>
       <c r="C266">
-        <v>55.9404</v>
+        <v>55.681</v>
       </c>
       <c r="D266">
-        <v>12.2987</v>
+        <v>12.2543</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -18980,7 +18975,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -19000,7 +18995,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -19022,7 +19017,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>MFD09912</t>
+          <t>MFD09925</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -19031,10 +19026,10 @@
         </is>
       </c>
       <c r="C267">
-        <v>55.681</v>
+        <v>55.6631</v>
       </c>
       <c r="D267">
-        <v>12.2543</v>
+        <v>12.3457</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -19090,7 +19085,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MFD09925</t>
+          <t>MFD09929</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -19099,10 +19094,10 @@
         </is>
       </c>
       <c r="C268">
-        <v>55.6631</v>
+        <v>55.8855</v>
       </c>
       <c r="D268">
-        <v>12.3457</v>
+        <v>12.1982</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -19116,7 +19111,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -19136,7 +19131,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -19158,7 +19153,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>MFD09929</t>
+          <t>MFD09943</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -19167,10 +19162,10 @@
         </is>
       </c>
       <c r="C269">
-        <v>55.8855</v>
+        <v>55.9209</v>
       </c>
       <c r="D269">
-        <v>12.1982</v>
+        <v>12.0644</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -19184,7 +19179,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -19204,7 +19199,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -19226,7 +19221,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>MFD09943</t>
+          <t>MFD09945</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -19235,10 +19230,10 @@
         </is>
       </c>
       <c r="C270">
-        <v>55.9209</v>
+        <v>55.9604</v>
       </c>
       <c r="D270">
-        <v>12.0644</v>
+        <v>12.0289</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -19294,7 +19289,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MFD09945</t>
+          <t>MFD09960</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19303,10 +19298,10 @@
         </is>
       </c>
       <c r="C271">
-        <v>55.9604</v>
+        <v>55.7373</v>
       </c>
       <c r="D271">
-        <v>12.0289</v>
+        <v>12.4242</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -19320,7 +19315,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -19340,7 +19335,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -19362,7 +19357,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>MFD09960</t>
+          <t>MFD09970</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -19371,10 +19366,10 @@
         </is>
       </c>
       <c r="C272">
-        <v>55.7373</v>
+        <v>55.7154</v>
       </c>
       <c r="D272">
-        <v>12.4242</v>
+        <v>11.696</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -19388,7 +19383,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -19408,7 +19403,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -19430,7 +19425,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>MFD09970</t>
+          <t>MFD09975</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -19439,10 +19434,10 @@
         </is>
       </c>
       <c r="C273">
-        <v>55.7154</v>
+        <v>55.8594</v>
       </c>
       <c r="D273">
-        <v>11.696</v>
+        <v>12.0751</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -19456,7 +19451,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -19476,7 +19471,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -19498,7 +19493,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>MFD09975</t>
+          <t>MFD09977</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -19507,10 +19502,10 @@
         </is>
       </c>
       <c r="C274">
-        <v>55.8594</v>
+        <v>55.7888</v>
       </c>
       <c r="D274">
-        <v>12.0751</v>
+        <v>12.156</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -19566,7 +19561,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>MFD09977</t>
+          <t>MFD09980</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -19575,10 +19570,10 @@
         </is>
       </c>
       <c r="C275">
-        <v>55.7888</v>
+        <v>55.7896</v>
       </c>
       <c r="D275">
-        <v>12.156</v>
+        <v>12.4698</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -19592,7 +19587,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -19612,7 +19607,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -19634,7 +19629,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>MFD09980</t>
+          <t>MFD09983</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -19643,10 +19638,10 @@
         </is>
       </c>
       <c r="C276">
-        <v>55.7896</v>
+        <v>55.8055</v>
       </c>
       <c r="D276">
-        <v>12.4698</v>
+        <v>12.4512</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -19702,7 +19697,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>MFD09983</t>
+          <t>MFD09984</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -19711,10 +19706,10 @@
         </is>
       </c>
       <c r="C277">
-        <v>55.8055</v>
+        <v>55.6276</v>
       </c>
       <c r="D277">
-        <v>12.4512</v>
+        <v>12.0264</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -19728,7 +19723,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>bynært naturområde: lynghhøjsøerne</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -19748,7 +19748,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -19770,7 +19770,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MFD09984</t>
+          <t>MFD10004</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -19779,10 +19779,10 @@
         </is>
       </c>
       <c r="C278">
-        <v>55.6276</v>
+        <v>55.8389</v>
       </c>
       <c r="D278">
-        <v>12.0264</v>
+        <v>12.4283</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -19796,12 +19796,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
-        </is>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>bynært naturområde: lynghhøjsøerne</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -19821,7 +19816,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -19843,7 +19838,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>MFD10004</t>
+          <t>MFD10007</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -19852,10 +19847,10 @@
         </is>
       </c>
       <c r="C279">
-        <v>55.8389</v>
+        <v>55.8579</v>
       </c>
       <c r="D279">
-        <v>12.4283</v>
+        <v>12.4931</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -19911,7 +19906,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>MFD10007</t>
+          <t>MFD10012</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -19920,10 +19915,10 @@
         </is>
       </c>
       <c r="C280">
-        <v>55.8579</v>
+        <v>55.8608</v>
       </c>
       <c r="D280">
-        <v>12.4931</v>
+        <v>12.557</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -19979,7 +19974,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>MFD10012</t>
+          <t>MFD10015</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -19988,10 +19983,10 @@
         </is>
       </c>
       <c r="C281">
-        <v>55.8608</v>
+        <v>55.9054</v>
       </c>
       <c r="D281">
-        <v>12.557</v>
+        <v>12.4823</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -20047,7 +20042,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>MFD10015</t>
+          <t>MFD10018</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -20056,10 +20051,10 @@
         </is>
       </c>
       <c r="C282">
-        <v>55.9054</v>
+        <v>55.8936</v>
       </c>
       <c r="D282">
-        <v>12.4823</v>
+        <v>12.5204</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -20115,7 +20110,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>MFD10018</t>
+          <t>MFD10019</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -20124,10 +20119,10 @@
         </is>
       </c>
       <c r="C283">
-        <v>55.8936</v>
+        <v>55.902</v>
       </c>
       <c r="D283">
-        <v>12.5204</v>
+        <v>12.4906</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -20183,7 +20178,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>MFD10019</t>
+          <t>MFD10026</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -20192,10 +20187,10 @@
         </is>
       </c>
       <c r="C284">
-        <v>55.902</v>
+        <v>55.9867</v>
       </c>
       <c r="D284">
-        <v>12.4906</v>
+        <v>12.498</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -20209,7 +20204,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -20229,7 +20224,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -20251,7 +20246,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>MFD10026</t>
+          <t>MFD10036</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -20260,10 +20255,10 @@
         </is>
       </c>
       <c r="C285">
-        <v>55.9867</v>
+        <v>56.04</v>
       </c>
       <c r="D285">
-        <v>12.498</v>
+        <v>12.6051</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -20319,7 +20314,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>MFD10036</t>
+          <t>MFD10040</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -20328,10 +20323,10 @@
         </is>
       </c>
       <c r="C286">
-        <v>56.04</v>
+        <v>56.0984</v>
       </c>
       <c r="D286">
-        <v>12.6051</v>
+        <v>12.3918</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -20387,7 +20382,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>MFD10040</t>
+          <t>MFD10052</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -20396,10 +20391,10 @@
         </is>
       </c>
       <c r="C287">
-        <v>56.0984</v>
+        <v>56.0885</v>
       </c>
       <c r="D287">
-        <v>12.3918</v>
+        <v>12.456</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -20455,7 +20450,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>MFD10052</t>
+          <t>MFD10054</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -20464,10 +20459,10 @@
         </is>
       </c>
       <c r="C288">
-        <v>56.0885</v>
+        <v>56.0763</v>
       </c>
       <c r="D288">
-        <v>12.456</v>
+        <v>12.5309</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -20523,7 +20518,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MFD10054</t>
+          <t>MFD10058</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -20532,10 +20527,10 @@
         </is>
       </c>
       <c r="C289">
-        <v>56.0763</v>
+        <v>56.1153</v>
       </c>
       <c r="D289">
-        <v>12.5309</v>
+        <v>12.3143</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -20591,7 +20586,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>MFD10058</t>
+          <t>MFD10597</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -20600,10 +20595,10 @@
         </is>
       </c>
       <c r="C290">
-        <v>56.1153</v>
+        <v>55.7645</v>
       </c>
       <c r="D290">
-        <v>12.3143</v>
+        <v>12.1093</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -20617,7 +20612,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -20637,7 +20632,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -20651,74 +20646,6 @@
         </is>
       </c>
       <c r="P290" t="inlineStr">
-        <is>
-          <t>Enclosed water</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>MFD10597</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>sediment</t>
-        </is>
-      </c>
-      <c r="C291">
-        <v>55.7645</v>
-      </c>
-      <c r="D291">
-        <v>12.1093</v>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>city_pond</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>3110</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2022-05-16</t>
-        </is>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>P05_2</t>
-        </is>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>Sediment</t>
-        </is>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>2022-05-16</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>Freshwater</t>
-        </is>
-      </c>
-      <c r="O291" t="inlineStr">
-        <is>
-          <t>Standing freshwater</t>
-        </is>
-      </c>
-      <c r="P291" t="inlineStr">
         <is>
           <t>Enclosed water</t>
         </is>
